--- a/de.bund.bfr.knime.fsklab.nodes/resources/vocabularies/Rights.xlsx
+++ b/de.bund.bfr.knime.fsklab.nodes/resources/vocabularies/Rights.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="253">
   <si>
     <t/>
   </si>
@@ -26,55 +26,751 @@
     <t>Comment</t>
   </si>
   <si>
-    <t>CC0</t>
-  </si>
-  <si>
-    <t>Rights_1</t>
-  </si>
-  <si>
-    <t>by</t>
-  </si>
-  <si>
-    <t>Rights_2</t>
-  </si>
-  <si>
-    <t>https://de.wikipedia.org/wiki/Creative_Commons</t>
-  </si>
-  <si>
-    <t>by-sa</t>
-  </si>
-  <si>
-    <t>Rights_3</t>
-  </si>
-  <si>
-    <t>by-nd</t>
-  </si>
-  <si>
-    <t>Rights_4</t>
-  </si>
-  <si>
-    <t>by-nc</t>
-  </si>
-  <si>
-    <t>Rights_5</t>
-  </si>
-  <si>
-    <t>by-nc-sa</t>
-  </si>
-  <si>
-    <t>Rights_6</t>
-  </si>
-  <si>
-    <t>by-nc-nd</t>
-  </si>
-  <si>
-    <t>Rights_7</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Rights_8</t>
+    <t>Academic Free License 3.0</t>
+  </si>
+  <si>
+    <t>AFL-3.0</t>
+  </si>
+  <si>
+    <t>http://www.opensource.org/licenses/AFL-3.0</t>
+  </si>
+  <si>
+    <t>Adaptive Public License 1.0</t>
+  </si>
+  <si>
+    <t>APL-1.0</t>
+  </si>
+  <si>
+    <t>http://www.opensource.org/licenses/APL-1.0</t>
+  </si>
+  <si>
+    <t>Apache Software License 1.1</t>
+  </si>
+  <si>
+    <t>Apache-1.1</t>
+  </si>
+  <si>
+    <t>http://www.opensource.org/licenses/Apache-1.1</t>
+  </si>
+  <si>
+    <t>Apache Software License 2.0</t>
+  </si>
+  <si>
+    <t>Apache-2.0</t>
+  </si>
+  <si>
+    <t>http://www.opensource.org/licenses/Apache-2.0</t>
+  </si>
+  <si>
+    <t>Apple Public Source License 2.0</t>
+  </si>
+  <si>
+    <t>APSL-2.0</t>
+  </si>
+  <si>
+    <t>http://www.opensource.org/licenses/APSL-2.0</t>
+  </si>
+  <si>
+    <t>Artistic License 2.0</t>
+  </si>
+  <si>
+    <t>Artistic-2.0</t>
+  </si>
+  <si>
+    <t>http://www.opensource.org/licenses/Artistic-2.0</t>
+  </si>
+  <si>
+    <t>Attribution Assurance Licenses</t>
+  </si>
+  <si>
+    <t>AAL</t>
+  </si>
+  <si>
+    <t>http://www.opensource.org/licenses/AAL</t>
+  </si>
+  <si>
+    <t>BSD 3-Clause "New" or "Revised" License (BSD-3-Clause)</t>
+  </si>
+  <si>
+    <t>BSD-3-Clause</t>
+  </si>
+  <si>
+    <t>http://www.opensource.org/licenses/BSD-3-Clause</t>
+  </si>
+  <si>
+    <t>Boost Software License 1.0</t>
+  </si>
+  <si>
+    <t>BSL-1.0</t>
+  </si>
+  <si>
+    <t>http://www.opensource.org/licenses/BSL-1.0</t>
+  </si>
+  <si>
+    <t>CC0 1.0</t>
+  </si>
+  <si>
+    <t>CC0-1.0</t>
+  </si>
+  <si>
+    <t>https://creativecommons.org/publicdomain/zero/1.0/</t>
+  </si>
+  <si>
+    <t>CUA Office Public License 1.0</t>
+  </si>
+  <si>
+    <t>CUA-OPL-1.0</t>
+  </si>
+  <si>
+    <t>http://www.opensource.org/licenses/CUA-OPL-1.0</t>
+  </si>
+  <si>
+    <t>CeCILL License 2.1</t>
+  </si>
+  <si>
+    <t>CECILL-2.1</t>
+  </si>
+  <si>
+    <t>http://www.opensource.org/licenses/CECILL-2.1</t>
+  </si>
+  <si>
+    <t>Common Development and Distribution License 1.0</t>
+  </si>
+  <si>
+    <t>CDDL-1.0</t>
+  </si>
+  <si>
+    <t>http://www.opensource.org/licenses/CDDL-1.0</t>
+  </si>
+  <si>
+    <t>Common Public Attribution License 1.0</t>
+  </si>
+  <si>
+    <t>CPAL-1.0</t>
+  </si>
+  <si>
+    <t>http://www.opensource.org/licenses/CPAL-1.0</t>
+  </si>
+  <si>
+    <t>Computer Associates Trusted Open Source License 1.1 (CATOSL-1.1)</t>
+  </si>
+  <si>
+    <t>CATOSL-1.1</t>
+  </si>
+  <si>
+    <t>http://www.opensource.org/licenses/CATOSL-1.1</t>
+  </si>
+  <si>
+    <t>Creative Commons Attribution 4.0</t>
+  </si>
+  <si>
+    <t>CC-BY-4.0</t>
+  </si>
+  <si>
+    <t>https://creativecommons.org/licenses/by/4.0/</t>
+  </si>
+  <si>
+    <t>Creative Commons Attribution Share-Alike 4.0</t>
+  </si>
+  <si>
+    <t>CC-BY-SA-4.0</t>
+  </si>
+  <si>
+    <t>https://creativecommons.org/licenses/by-sa/4.0/</t>
+  </si>
+  <si>
+    <t>Creative Commons Attribution-NoDerivs 4.0</t>
+  </si>
+  <si>
+    <t>CC BY-ND 4.0</t>
+  </si>
+  <si>
+    <t>https://creativecommons.org/licenses/by-nd/4.0/</t>
+  </si>
+  <si>
+    <t>Creative Commons Attribution-NonCommercial 4.0</t>
+  </si>
+  <si>
+    <t>CC-BY-NC-4.0</t>
+  </si>
+  <si>
+    <t>https://creativecommons.org/licenses/by-nc/4.0/</t>
+  </si>
+  <si>
+    <t>Creative Commons Attribution-NonCommercial-NoDerivatives 4.0</t>
+  </si>
+  <si>
+    <t>CC-BY-NC-ND-4.0</t>
+  </si>
+  <si>
+    <t>https://creativecommons.org/licenses/by-nc-nd/4.0/</t>
+  </si>
+  <si>
+    <t>Creative Commons Attribution-NonCommercial-ShareAlike 4.0</t>
+  </si>
+  <si>
+    <t>CC BY-NC-SA 4.0</t>
+  </si>
+  <si>
+    <t>https://creativecommons.org/licenses/by-nc-sa/4.0/</t>
+  </si>
+  <si>
+    <t>EU DataGrid Software License</t>
+  </si>
+  <si>
+    <t>EUDatagrid</t>
+  </si>
+  <si>
+    <t>http://www.opensource.org/licenses/EUDatagrid</t>
+  </si>
+  <si>
+    <t>Eclipse Public License 1.0</t>
+  </si>
+  <si>
+    <t>EPL-1.0</t>
+  </si>
+  <si>
+    <t>http://www.opensource.org/licenses/EPL-1.0</t>
+  </si>
+  <si>
+    <t>Educational Community License 2.0</t>
+  </si>
+  <si>
+    <t>ECL-2.0</t>
+  </si>
+  <si>
+    <t>http://www.opensource.org/licenses/ECL-2.0</t>
+  </si>
+  <si>
+    <t>Eiffel Forum License 2.0</t>
+  </si>
+  <si>
+    <t>EFL-2.0</t>
+  </si>
+  <si>
+    <t>http://www.opensource.org/licenses/EFL-2.0</t>
+  </si>
+  <si>
+    <t>Entessa Public License</t>
+  </si>
+  <si>
+    <t>Entessa</t>
+  </si>
+  <si>
+    <t>http://www.opensource.org/licenses/Entessa</t>
+  </si>
+  <si>
+    <t>European Union Public License 1.1</t>
+  </si>
+  <si>
+    <t>EUPL-1.1</t>
+  </si>
+  <si>
+    <t>http://www.opensource.org/licenses/EUPL-1.1</t>
+  </si>
+  <si>
+    <t>Fair License</t>
+  </si>
+  <si>
+    <t>Fair</t>
+  </si>
+  <si>
+    <t>http://www.opensource.org/licenses/Fair</t>
+  </si>
+  <si>
+    <t>Frameworx License 1.0</t>
+  </si>
+  <si>
+    <t>Frameworx-1.0</t>
+  </si>
+  <si>
+    <t>http://www.opensource.org/licenses/Frameworx-1.0</t>
+  </si>
+  <si>
+    <t>GNU Affero General Public License v3</t>
+  </si>
+  <si>
+    <t>AGPL-3.0</t>
+  </si>
+  <si>
+    <t>http://www.opensource.org/licenses/AGPL-3.0</t>
+  </si>
+  <si>
+    <t>GNU Free Documentation License 1.3 with no cover texts and no invariant sections</t>
+  </si>
+  <si>
+    <t>GFDL-1.3-no-cover-texts-no-invariant-sections</t>
+  </si>
+  <si>
+    <t>http://www.opendefinition.org/licenses/gfdl</t>
+  </si>
+  <si>
+    <t>GNU General Public License 2.0</t>
+  </si>
+  <si>
+    <t>GPL-2.0</t>
+  </si>
+  <si>
+    <t>http://www.opensource.org/licenses/GPL-2.0</t>
+  </si>
+  <si>
+    <t>GNU General Public License 3.0</t>
+  </si>
+  <si>
+    <t>GPL-3.0</t>
+  </si>
+  <si>
+    <t>http://www.opensource.org/licenses/GPL-3.0</t>
+  </si>
+  <si>
+    <t>GNU Lesser General Public License 2.1</t>
+  </si>
+  <si>
+    <t>LGPL-2.1</t>
+  </si>
+  <si>
+    <t>http://www.opensource.org/licenses/LGPL-2.1</t>
+  </si>
+  <si>
+    <t>GNU Lesser General Public License 3.0</t>
+  </si>
+  <si>
+    <t>LGPL-3.0</t>
+  </si>
+  <si>
+    <t>http://www.opensource.org/licenses/LGPL-3.0</t>
+  </si>
+  <si>
+    <t>IBM Public License 1.0</t>
+  </si>
+  <si>
+    <t>IPL-1.0</t>
+  </si>
+  <si>
+    <t>http://www.opensource.org/licenses/IPL-1.0</t>
+  </si>
+  <si>
+    <t>IPA Font License</t>
+  </si>
+  <si>
+    <t>IPA</t>
+  </si>
+  <si>
+    <t>http://www.opensource.org/licenses/IPA</t>
+  </si>
+  <si>
+    <t>ISC License</t>
+  </si>
+  <si>
+    <t>ISC</t>
+  </si>
+  <si>
+    <t>http://www.opensource.org/licenses/ISC</t>
+  </si>
+  <si>
+    <t>LaTeX Project Public License 1.3c</t>
+  </si>
+  <si>
+    <t>LPPL-1.3c</t>
+  </si>
+  <si>
+    <t>http://www.opensource.org/licenses/LPPL-1.3c</t>
+  </si>
+  <si>
+    <t>License Not Specified</t>
+  </si>
+  <si>
+    <t>notspecified</t>
+  </si>
+  <si>
+    <t>Lucent Public License ("Plan9") 1.0</t>
+  </si>
+  <si>
+    <t>LPL-1.0</t>
+  </si>
+  <si>
+    <t>http://www.opensource.org/licenses/LPL-1.0</t>
+  </si>
+  <si>
+    <t>MIT License</t>
+  </si>
+  <si>
+    <t>MIT</t>
+  </si>
+  <si>
+    <t>http://www.opensource.org/licenses/MIT</t>
+  </si>
+  <si>
+    <t>Microsoft Public License</t>
+  </si>
+  <si>
+    <t>MS-PL</t>
+  </si>
+  <si>
+    <t>http://www.opensource.org/licenses/MS-PL</t>
+  </si>
+  <si>
+    <t>Microsoft Reciprocal License</t>
+  </si>
+  <si>
+    <t>MS-RL</t>
+  </si>
+  <si>
+    <t>http://www.opensource.org/licenses/MS-RL</t>
+  </si>
+  <si>
+    <t>MirOS Licence</t>
+  </si>
+  <si>
+    <t>MirOS</t>
+  </si>
+  <si>
+    <t>http://www.opensource.org/licenses/MirOS</t>
+  </si>
+  <si>
+    <t>Motosoto License</t>
+  </si>
+  <si>
+    <t>Motosoto</t>
+  </si>
+  <si>
+    <t>http://www.opensource.org/licenses/Motosoto</t>
+  </si>
+  <si>
+    <t>Mozilla Public License 1.1</t>
+  </si>
+  <si>
+    <t>MPL-1.1</t>
+  </si>
+  <si>
+    <t>http://www.opensource.org/licenses/MPL-1.1</t>
+  </si>
+  <si>
+    <t>Multics License</t>
+  </si>
+  <si>
+    <t>Multics</t>
+  </si>
+  <si>
+    <t>http://www.opensource.org/licenses/Multics</t>
+  </si>
+  <si>
+    <t>NASA Open Source Agreement 1.3</t>
+  </si>
+  <si>
+    <t>NASA-1.3</t>
+  </si>
+  <si>
+    <t>http://www.opensource.org/licenses/NASA-1.3</t>
+  </si>
+  <si>
+    <t>NTP License</t>
+  </si>
+  <si>
+    <t>NTP</t>
+  </si>
+  <si>
+    <t>http://www.opensource.org/licenses/NTP</t>
+  </si>
+  <si>
+    <t>Naumen Public License</t>
+  </si>
+  <si>
+    <t>Naumen</t>
+  </si>
+  <si>
+    <t>http://www.opensource.org/licenses/Naumen</t>
+  </si>
+  <si>
+    <t>Nethack General Public License</t>
+  </si>
+  <si>
+    <t>NGPL</t>
+  </si>
+  <si>
+    <t>http://www.opensource.org/licenses/NGPL</t>
+  </si>
+  <si>
+    <t>Nokia Open Source License</t>
+  </si>
+  <si>
+    <t>Nokia</t>
+  </si>
+  <si>
+    <t>http://www.opensource.org/licenses/Nokia</t>
+  </si>
+  <si>
+    <t>Non-Profit Open Software License 3.0</t>
+  </si>
+  <si>
+    <t>NPOSL-3.0</t>
+  </si>
+  <si>
+    <t>http://www.opensource.org/licenses/NPOSL-3.0</t>
+  </si>
+  <si>
+    <t>OCLC Research Public License 2.0</t>
+  </si>
+  <si>
+    <t>OCLC-2.0</t>
+  </si>
+  <si>
+    <t>http://www.opensource.org/licenses/OCLC-2.0</t>
+  </si>
+  <si>
+    <t>Open Data Commons Attribution License 1.0</t>
+  </si>
+  <si>
+    <t>ODC-BY-1.0</t>
+  </si>
+  <si>
+    <t>http://www.opendefinition.org/licenses/odc-by</t>
+  </si>
+  <si>
+    <t>Open Data Commons Open Database License 1.0</t>
+  </si>
+  <si>
+    <t>ODbL-1.0</t>
+  </si>
+  <si>
+    <t>http://www.opendefinition.org/licenses/odc-odbl</t>
+  </si>
+  <si>
+    <t>Open Data Commons Public Domain Dedication and Licence 1.0</t>
+  </si>
+  <si>
+    <t>PDDL-1.0</t>
+  </si>
+  <si>
+    <t>http://www.opendefinition.org/licenses/odc-pddl</t>
+  </si>
+  <si>
+    <t>Open Font License 1.1</t>
+  </si>
+  <si>
+    <t>OFL-1.1</t>
+  </si>
+  <si>
+    <t>http://www.opensource.org/licenses/OFL-1.1</t>
+  </si>
+  <si>
+    <t>Open Government Licence 2.0 (United Kingdom)</t>
+  </si>
+  <si>
+    <t>OGL-UK-2.0</t>
+  </si>
+  <si>
+    <t>https://www.nationalarchives.gov.uk/doc/open-government-licence/version/2/</t>
+  </si>
+  <si>
+    <t>Open Group Test Suite License</t>
+  </si>
+  <si>
+    <t>OGTSL</t>
+  </si>
+  <si>
+    <t>http://www.opensource.org/licenses/OGTSL</t>
+  </si>
+  <si>
+    <t>Open Software License 3.0</t>
+  </si>
+  <si>
+    <t>OSL-3.0</t>
+  </si>
+  <si>
+    <t>http://www.opensource.org/licenses/OSL-3.0</t>
+  </si>
+  <si>
+    <t>Other (Attribution)</t>
+  </si>
+  <si>
+    <t>other-at</t>
+  </si>
+  <si>
+    <t>Other (Non-Commercial)</t>
+  </si>
+  <si>
+    <t>other-nc</t>
+  </si>
+  <si>
+    <t>Other (Not Open)</t>
+  </si>
+  <si>
+    <t>other-closed</t>
+  </si>
+  <si>
+    <t>Other (Open)</t>
+  </si>
+  <si>
+    <t>other-open</t>
+  </si>
+  <si>
+    <t>Other (Public Domain)</t>
+  </si>
+  <si>
+    <t>other-pd</t>
+  </si>
+  <si>
+    <t>PHP License 3.0</t>
+  </si>
+  <si>
+    <t>PHP-3.0</t>
+  </si>
+  <si>
+    <t>http://www.opensource.org/licenses/PHP-3.0</t>
+  </si>
+  <si>
+    <t>PostgreSQL License</t>
+  </si>
+  <si>
+    <t>PostgreSQL</t>
+  </si>
+  <si>
+    <t>http://www.opensource.org/licenses/PostgreSQL</t>
+  </si>
+  <si>
+    <t>Python License 2.0</t>
+  </si>
+  <si>
+    <t>Python-2.0</t>
+  </si>
+  <si>
+    <t>http://www.opensource.org/licenses/Python-2.0</t>
+  </si>
+  <si>
+    <t>Q Public License 1.0</t>
+  </si>
+  <si>
+    <t>QPL-1.0</t>
+  </si>
+  <si>
+    <t>http://www.opensource.org/licenses/QPL-1.0</t>
+  </si>
+  <si>
+    <t>RealNetworks Public Source License 1.0</t>
+  </si>
+  <si>
+    <t>RPSL-1.0</t>
+  </si>
+  <si>
+    <t>http://www.opensource.org/licenses/RPSL-1.0</t>
+  </si>
+  <si>
+    <t>Reciprocal Public License 1.5</t>
+  </si>
+  <si>
+    <t>RPL-1.5</t>
+  </si>
+  <si>
+    <t>http://www.opensource.org/licenses/RPL-1.5</t>
+  </si>
+  <si>
+    <t>Ricoh Source Code Public License</t>
+  </si>
+  <si>
+    <t>RSCPL</t>
+  </si>
+  <si>
+    <t>http://www.opensource.org/licenses/RSCPL</t>
+  </si>
+  <si>
+    <t>Simple Public License 2.0</t>
+  </si>
+  <si>
+    <t>SimPL-2.0</t>
+  </si>
+  <si>
+    <t>http://www.opensource.org/licenses/SimPL-2.0</t>
+  </si>
+  <si>
+    <t>Sleepycat License</t>
+  </si>
+  <si>
+    <t>Sleepycat</t>
+  </si>
+  <si>
+    <t>http://www.opensource.org/licenses/Sleepycat</t>
+  </si>
+  <si>
+    <t>Sun Public License 1.0</t>
+  </si>
+  <si>
+    <t>SPL-1.0</t>
+  </si>
+  <si>
+    <t>http://www.opensource.org/licenses/SPL-1.0</t>
+  </si>
+  <si>
+    <t>Sybase Open Watcom Public License 1.0</t>
+  </si>
+  <si>
+    <t>Watcom-1.0</t>
+  </si>
+  <si>
+    <t>http://www.opensource.org/licenses/Watcom-1.0</t>
+  </si>
+  <si>
+    <t>Talis Community License</t>
+  </si>
+  <si>
+    <t>Talis</t>
+  </si>
+  <si>
+    <t>http://www.opendefinition.org/licenses/tcl</t>
+  </si>
+  <si>
+    <t>University of Illinois/NCSA Open Source License</t>
+  </si>
+  <si>
+    <t>NCSA</t>
+  </si>
+  <si>
+    <t>http://www.opensource.org/licenses/NCSA</t>
+  </si>
+  <si>
+    <t>Vovida Software License 1.0</t>
+  </si>
+  <si>
+    <t>VSL-1.0</t>
+  </si>
+  <si>
+    <t>http://www.opensource.org/licenses/VSL-1.0</t>
+  </si>
+  <si>
+    <t>W3C License</t>
+  </si>
+  <si>
+    <t>W3C</t>
+  </si>
+  <si>
+    <t>http://www.opensource.org/licenses/W3C</t>
+  </si>
+  <si>
+    <t>X.Net License</t>
+  </si>
+  <si>
+    <t>Xnet</t>
+  </si>
+  <si>
+    <t>http://www.opensource.org/licenses/Xnet</t>
+  </si>
+  <si>
+    <t>Zope Public License 2.0</t>
+  </si>
+  <si>
+    <t>ZPL-2.0</t>
+  </si>
+  <si>
+    <t>http://www.opensource.org/licenses/ZPL-2.0</t>
+  </si>
+  <si>
+    <t>zlib/libpng license</t>
+  </si>
+  <si>
+    <t>Zlib</t>
+  </si>
+  <si>
+    <t>http://www.opensource.org/licenses/Zlib</t>
   </si>
 </sst>
 </file>
@@ -142,6 +838,22 @@
       <c r="H1"/>
       <c r="I1"/>
       <c r="J1"/>
+      <c r="K1"/>
+      <c r="L1"/>
+      <c r="M1"/>
+      <c r="N1"/>
+      <c r="O1"/>
+      <c r="P1"/>
+      <c r="Q1"/>
+      <c r="R1"/>
+      <c r="S1"/>
+      <c r="T1"/>
+      <c r="U1"/>
+      <c r="V1"/>
+      <c r="W1"/>
+      <c r="X1"/>
+      <c r="Y1"/>
+      <c r="Z1"/>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -150,8 +862,8 @@
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2">
-        <f>0</f>
+      <c r="C2" t="s">
+        <v>6</v>
       </c>
       <c r="D2"/>
       <c r="E2"/>
@@ -163,13 +875,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -181,13 +893,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D4"/>
       <c r="E4"/>
@@ -199,13 +911,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D5"/>
       <c r="E5"/>
@@ -217,13 +929,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D6"/>
       <c r="E6"/>
@@ -235,13 +947,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="D7"/>
       <c r="E7"/>
@@ -253,13 +965,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D8"/>
       <c r="E8"/>
@@ -271,12 +983,14 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9"/>
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
       <c r="D9"/>
       <c r="E9"/>
       <c r="F9"/>
@@ -286,9 +1000,15 @@
       <c r="J9"/>
     </row>
     <row r="10">
-      <c r="A10"/>
-      <c r="B10"/>
-      <c r="C10"/>
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
       <c r="D10"/>
       <c r="E10"/>
       <c r="F10"/>
@@ -298,9 +1018,15 @@
       <c r="J10"/>
     </row>
     <row r="11">
-      <c r="A11"/>
-      <c r="B11"/>
-      <c r="C11"/>
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
       <c r="D11"/>
       <c r="E11"/>
       <c r="F11"/>
@@ -310,9 +1036,15 @@
       <c r="J11"/>
     </row>
     <row r="12">
-      <c r="A12"/>
-      <c r="B12"/>
-      <c r="C12"/>
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" t="s">
+        <v>36</v>
+      </c>
       <c r="D12"/>
       <c r="E12"/>
       <c r="F12"/>
@@ -322,9 +1054,15 @@
       <c r="J12"/>
     </row>
     <row r="13">
-      <c r="A13"/>
-      <c r="B13"/>
-      <c r="C13"/>
+      <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" t="s">
+        <v>39</v>
+      </c>
       <c r="D13"/>
       <c r="E13"/>
       <c r="F13"/>
@@ -334,9 +1072,15 @@
       <c r="J13"/>
     </row>
     <row r="14">
-      <c r="A14"/>
-      <c r="B14"/>
-      <c r="C14"/>
+      <c r="A14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" t="s">
+        <v>42</v>
+      </c>
       <c r="D14"/>
       <c r="E14"/>
       <c r="F14"/>
@@ -346,9 +1090,15 @@
       <c r="J14"/>
     </row>
     <row r="15">
-      <c r="A15"/>
-      <c r="B15"/>
-      <c r="C15"/>
+      <c r="A15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" t="s">
+        <v>45</v>
+      </c>
       <c r="D15"/>
       <c r="E15"/>
       <c r="F15"/>
@@ -358,9 +1108,15 @@
       <c r="J15"/>
     </row>
     <row r="16">
-      <c r="A16"/>
-      <c r="B16"/>
-      <c r="C16"/>
+      <c r="A16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" t="s">
+        <v>48</v>
+      </c>
       <c r="D16"/>
       <c r="E16"/>
       <c r="F16"/>
@@ -370,9 +1126,15 @@
       <c r="J16"/>
     </row>
     <row r="17">
-      <c r="A17"/>
-      <c r="B17"/>
-      <c r="C17"/>
+      <c r="A17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" t="s">
+        <v>51</v>
+      </c>
       <c r="D17"/>
       <c r="E17"/>
       <c r="F17"/>
@@ -382,9 +1144,15 @@
       <c r="J17"/>
     </row>
     <row r="18">
-      <c r="A18"/>
-      <c r="B18"/>
-      <c r="C18"/>
+      <c r="A18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" t="s">
+        <v>54</v>
+      </c>
       <c r="D18"/>
       <c r="E18"/>
       <c r="F18"/>
@@ -394,9 +1162,15 @@
       <c r="J18"/>
     </row>
     <row r="19">
-      <c r="A19"/>
-      <c r="B19"/>
-      <c r="C19"/>
+      <c r="A19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" t="s">
+        <v>57</v>
+      </c>
       <c r="D19"/>
       <c r="E19"/>
       <c r="F19"/>
@@ -406,9 +1180,15 @@
       <c r="J19"/>
     </row>
     <row r="20">
-      <c r="A20"/>
-      <c r="B20"/>
-      <c r="C20"/>
+      <c r="A20" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" t="s">
+        <v>60</v>
+      </c>
       <c r="D20"/>
       <c r="E20"/>
       <c r="F20"/>
@@ -418,9 +1198,15 @@
       <c r="J20"/>
     </row>
     <row r="21">
-      <c r="A21"/>
-      <c r="B21"/>
-      <c r="C21"/>
+      <c r="A21" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" t="s">
+        <v>63</v>
+      </c>
       <c r="D21"/>
       <c r="E21"/>
       <c r="F21"/>
@@ -430,9 +1216,15 @@
       <c r="J21"/>
     </row>
     <row r="22">
-      <c r="A22"/>
-      <c r="B22"/>
-      <c r="C22"/>
+      <c r="A22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" t="s">
+        <v>66</v>
+      </c>
       <c r="D22"/>
       <c r="E22"/>
       <c r="F22"/>
@@ -442,9 +1234,15 @@
       <c r="J22"/>
     </row>
     <row r="23">
-      <c r="A23"/>
-      <c r="B23"/>
-      <c r="C23"/>
+      <c r="A23" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" t="s">
+        <v>69</v>
+      </c>
       <c r="D23"/>
       <c r="E23"/>
       <c r="F23"/>
@@ -454,9 +1252,15 @@
       <c r="J23"/>
     </row>
     <row r="24">
-      <c r="A24"/>
-      <c r="B24"/>
-      <c r="C24"/>
+      <c r="A24" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" t="s">
+        <v>72</v>
+      </c>
       <c r="D24"/>
       <c r="E24"/>
       <c r="F24"/>
@@ -466,9 +1270,15 @@
       <c r="J24"/>
     </row>
     <row r="25">
-      <c r="A25"/>
-      <c r="B25"/>
-      <c r="C25"/>
+      <c r="A25" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" t="s">
+        <v>75</v>
+      </c>
       <c r="D25"/>
       <c r="E25"/>
       <c r="F25"/>
@@ -478,9 +1288,15 @@
       <c r="J25"/>
     </row>
     <row r="26">
-      <c r="A26"/>
-      <c r="B26"/>
-      <c r="C26"/>
+      <c r="A26" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" t="s">
+        <v>78</v>
+      </c>
       <c r="D26"/>
       <c r="E26"/>
       <c r="F26"/>
@@ -490,9 +1306,15 @@
       <c r="J26"/>
     </row>
     <row r="27">
-      <c r="A27"/>
-      <c r="B27"/>
-      <c r="C27"/>
+      <c r="A27" t="s">
+        <v>79</v>
+      </c>
+      <c r="B27" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" t="s">
+        <v>81</v>
+      </c>
       <c r="D27"/>
       <c r="E27"/>
       <c r="F27"/>
@@ -502,9 +1324,15 @@
       <c r="J27"/>
     </row>
     <row r="28">
-      <c r="A28"/>
-      <c r="B28"/>
-      <c r="C28"/>
+      <c r="A28" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28" t="s">
+        <v>83</v>
+      </c>
+      <c r="C28" t="s">
+        <v>84</v>
+      </c>
       <c r="D28"/>
       <c r="E28"/>
       <c r="F28"/>
@@ -514,9 +1342,15 @@
       <c r="J28"/>
     </row>
     <row r="29">
-      <c r="A29"/>
-      <c r="B29"/>
-      <c r="C29"/>
+      <c r="A29" t="s">
+        <v>85</v>
+      </c>
+      <c r="B29" t="s">
+        <v>86</v>
+      </c>
+      <c r="C29" t="s">
+        <v>87</v>
+      </c>
       <c r="D29"/>
       <c r="E29"/>
       <c r="F29"/>
@@ -526,9 +1360,15 @@
       <c r="J29"/>
     </row>
     <row r="30">
-      <c r="A30"/>
-      <c r="B30"/>
-      <c r="C30"/>
+      <c r="A30" t="s">
+        <v>88</v>
+      </c>
+      <c r="B30" t="s">
+        <v>89</v>
+      </c>
+      <c r="C30" t="s">
+        <v>90</v>
+      </c>
       <c r="D30"/>
       <c r="E30"/>
       <c r="F30"/>
@@ -538,9 +1378,15 @@
       <c r="J30"/>
     </row>
     <row r="31">
-      <c r="A31"/>
-      <c r="B31"/>
-      <c r="C31"/>
+      <c r="A31" t="s">
+        <v>91</v>
+      </c>
+      <c r="B31" t="s">
+        <v>92</v>
+      </c>
+      <c r="C31" t="s">
+        <v>93</v>
+      </c>
       <c r="D31"/>
       <c r="E31"/>
       <c r="F31"/>
@@ -550,9 +1396,15 @@
       <c r="J31"/>
     </row>
     <row r="32">
-      <c r="A32"/>
-      <c r="B32"/>
-      <c r="C32"/>
+      <c r="A32" t="s">
+        <v>94</v>
+      </c>
+      <c r="B32" t="s">
+        <v>95</v>
+      </c>
+      <c r="C32" t="s">
+        <v>96</v>
+      </c>
       <c r="D32"/>
       <c r="E32"/>
       <c r="F32"/>
@@ -562,9 +1414,15 @@
       <c r="J32"/>
     </row>
     <row r="33">
-      <c r="A33"/>
-      <c r="B33"/>
-      <c r="C33"/>
+      <c r="A33" t="s">
+        <v>97</v>
+      </c>
+      <c r="B33" t="s">
+        <v>98</v>
+      </c>
+      <c r="C33" t="s">
+        <v>99</v>
+      </c>
       <c r="D33"/>
       <c r="E33"/>
       <c r="F33"/>
@@ -574,9 +1432,15 @@
       <c r="J33"/>
     </row>
     <row r="34">
-      <c r="A34"/>
-      <c r="B34"/>
-      <c r="C34"/>
+      <c r="A34" t="s">
+        <v>100</v>
+      </c>
+      <c r="B34" t="s">
+        <v>101</v>
+      </c>
+      <c r="C34" t="s">
+        <v>102</v>
+      </c>
       <c r="D34"/>
       <c r="E34"/>
       <c r="F34"/>
@@ -586,9 +1450,15 @@
       <c r="J34"/>
     </row>
     <row r="35">
-      <c r="A35"/>
-      <c r="B35"/>
-      <c r="C35"/>
+      <c r="A35" t="s">
+        <v>103</v>
+      </c>
+      <c r="B35" t="s">
+        <v>104</v>
+      </c>
+      <c r="C35" t="s">
+        <v>105</v>
+      </c>
       <c r="D35"/>
       <c r="E35"/>
       <c r="F35"/>
@@ -598,9 +1468,15 @@
       <c r="J35"/>
     </row>
     <row r="36">
-      <c r="A36"/>
-      <c r="B36"/>
-      <c r="C36"/>
+      <c r="A36" t="s">
+        <v>106</v>
+      </c>
+      <c r="B36" t="s">
+        <v>107</v>
+      </c>
+      <c r="C36" t="s">
+        <v>108</v>
+      </c>
       <c r="D36"/>
       <c r="E36"/>
       <c r="F36"/>
@@ -610,9 +1486,15 @@
       <c r="J36"/>
     </row>
     <row r="37">
-      <c r="A37"/>
-      <c r="B37"/>
-      <c r="C37"/>
+      <c r="A37" t="s">
+        <v>109</v>
+      </c>
+      <c r="B37" t="s">
+        <v>110</v>
+      </c>
+      <c r="C37" t="s">
+        <v>111</v>
+      </c>
       <c r="D37"/>
       <c r="E37"/>
       <c r="F37"/>
@@ -622,9 +1504,15 @@
       <c r="J37"/>
     </row>
     <row r="38">
-      <c r="A38"/>
-      <c r="B38"/>
-      <c r="C38"/>
+      <c r="A38" t="s">
+        <v>112</v>
+      </c>
+      <c r="B38" t="s">
+        <v>113</v>
+      </c>
+      <c r="C38" t="s">
+        <v>114</v>
+      </c>
       <c r="D38"/>
       <c r="E38"/>
       <c r="F38"/>
@@ -634,9 +1522,15 @@
       <c r="J38"/>
     </row>
     <row r="39">
-      <c r="A39"/>
-      <c r="B39"/>
-      <c r="C39"/>
+      <c r="A39" t="s">
+        <v>115</v>
+      </c>
+      <c r="B39" t="s">
+        <v>116</v>
+      </c>
+      <c r="C39" t="s">
+        <v>117</v>
+      </c>
       <c r="D39"/>
       <c r="E39"/>
       <c r="F39"/>
@@ -646,9 +1540,15 @@
       <c r="J39"/>
     </row>
     <row r="40">
-      <c r="A40"/>
-      <c r="B40"/>
-      <c r="C40"/>
+      <c r="A40" t="s">
+        <v>118</v>
+      </c>
+      <c r="B40" t="s">
+        <v>119</v>
+      </c>
+      <c r="C40" t="s">
+        <v>120</v>
+      </c>
       <c r="D40"/>
       <c r="E40"/>
       <c r="F40"/>
@@ -658,8 +1558,12 @@
       <c r="J40"/>
     </row>
     <row r="41">
-      <c r="A41"/>
-      <c r="B41"/>
+      <c r="A41" t="s">
+        <v>121</v>
+      </c>
+      <c r="B41" t="s">
+        <v>122</v>
+      </c>
       <c r="C41"/>
       <c r="D41"/>
       <c r="E41"/>
@@ -670,9 +1574,15 @@
       <c r="J41"/>
     </row>
     <row r="42">
-      <c r="A42"/>
-      <c r="B42"/>
-      <c r="C42"/>
+      <c r="A42" t="s">
+        <v>123</v>
+      </c>
+      <c r="B42" t="s">
+        <v>124</v>
+      </c>
+      <c r="C42" t="s">
+        <v>125</v>
+      </c>
       <c r="D42"/>
       <c r="E42"/>
       <c r="F42"/>
@@ -682,9 +1592,15 @@
       <c r="J42"/>
     </row>
     <row r="43">
-      <c r="A43"/>
-      <c r="B43"/>
-      <c r="C43"/>
+      <c r="A43" t="s">
+        <v>126</v>
+      </c>
+      <c r="B43" t="s">
+        <v>127</v>
+      </c>
+      <c r="C43" t="s">
+        <v>128</v>
+      </c>
       <c r="D43"/>
       <c r="E43"/>
       <c r="F43"/>
@@ -694,9 +1610,15 @@
       <c r="J43"/>
     </row>
     <row r="44">
-      <c r="A44"/>
-      <c r="B44"/>
-      <c r="C44"/>
+      <c r="A44" t="s">
+        <v>129</v>
+      </c>
+      <c r="B44" t="s">
+        <v>130</v>
+      </c>
+      <c r="C44" t="s">
+        <v>131</v>
+      </c>
       <c r="D44"/>
       <c r="E44"/>
       <c r="F44"/>
@@ -706,9 +1628,15 @@
       <c r="J44"/>
     </row>
     <row r="45">
-      <c r="A45"/>
-      <c r="B45"/>
-      <c r="C45"/>
+      <c r="A45" t="s">
+        <v>132</v>
+      </c>
+      <c r="B45" t="s">
+        <v>133</v>
+      </c>
+      <c r="C45" t="s">
+        <v>134</v>
+      </c>
       <c r="D45"/>
       <c r="E45"/>
       <c r="F45"/>
@@ -718,9 +1646,15 @@
       <c r="J45"/>
     </row>
     <row r="46">
-      <c r="A46"/>
-      <c r="B46"/>
-      <c r="C46"/>
+      <c r="A46" t="s">
+        <v>135</v>
+      </c>
+      <c r="B46" t="s">
+        <v>136</v>
+      </c>
+      <c r="C46" t="s">
+        <v>137</v>
+      </c>
       <c r="D46"/>
       <c r="E46"/>
       <c r="F46"/>
@@ -730,9 +1664,15 @@
       <c r="J46"/>
     </row>
     <row r="47">
-      <c r="A47"/>
-      <c r="B47"/>
-      <c r="C47"/>
+      <c r="A47" t="s">
+        <v>138</v>
+      </c>
+      <c r="B47" t="s">
+        <v>139</v>
+      </c>
+      <c r="C47" t="s">
+        <v>140</v>
+      </c>
       <c r="D47"/>
       <c r="E47"/>
       <c r="F47"/>
@@ -742,9 +1682,15 @@
       <c r="J47"/>
     </row>
     <row r="48">
-      <c r="A48"/>
-      <c r="B48"/>
-      <c r="C48"/>
+      <c r="A48" t="s">
+        <v>141</v>
+      </c>
+      <c r="B48" t="s">
+        <v>142</v>
+      </c>
+      <c r="C48" t="s">
+        <v>143</v>
+      </c>
       <c r="D48"/>
       <c r="E48"/>
       <c r="F48"/>
@@ -754,9 +1700,15 @@
       <c r="J48"/>
     </row>
     <row r="49">
-      <c r="A49"/>
-      <c r="B49"/>
-      <c r="C49"/>
+      <c r="A49" t="s">
+        <v>144</v>
+      </c>
+      <c r="B49" t="s">
+        <v>145</v>
+      </c>
+      <c r="C49" t="s">
+        <v>146</v>
+      </c>
       <c r="D49"/>
       <c r="E49"/>
       <c r="F49"/>
@@ -766,9 +1718,15 @@
       <c r="J49"/>
     </row>
     <row r="50">
-      <c r="A50"/>
-      <c r="B50"/>
-      <c r="C50"/>
+      <c r="A50" t="s">
+        <v>147</v>
+      </c>
+      <c r="B50" t="s">
+        <v>148</v>
+      </c>
+      <c r="C50" t="s">
+        <v>149</v>
+      </c>
       <c r="D50"/>
       <c r="E50"/>
       <c r="F50"/>
@@ -778,9 +1736,15 @@
       <c r="J50"/>
     </row>
     <row r="51">
-      <c r="A51"/>
-      <c r="B51"/>
-      <c r="C51"/>
+      <c r="A51" t="s">
+        <v>150</v>
+      </c>
+      <c r="B51" t="s">
+        <v>151</v>
+      </c>
+      <c r="C51" t="s">
+        <v>152</v>
+      </c>
       <c r="D51"/>
       <c r="E51"/>
       <c r="F51"/>
@@ -790,9 +1754,15 @@
       <c r="J51"/>
     </row>
     <row r="52">
-      <c r="A52"/>
-      <c r="B52"/>
-      <c r="C52"/>
+      <c r="A52" t="s">
+        <v>153</v>
+      </c>
+      <c r="B52" t="s">
+        <v>154</v>
+      </c>
+      <c r="C52" t="s">
+        <v>155</v>
+      </c>
       <c r="D52"/>
       <c r="E52"/>
       <c r="F52"/>
@@ -802,9 +1772,15 @@
       <c r="J52"/>
     </row>
     <row r="53">
-      <c r="A53"/>
-      <c r="B53"/>
-      <c r="C53"/>
+      <c r="A53" t="s">
+        <v>156</v>
+      </c>
+      <c r="B53" t="s">
+        <v>157</v>
+      </c>
+      <c r="C53" t="s">
+        <v>158</v>
+      </c>
       <c r="D53"/>
       <c r="E53"/>
       <c r="F53"/>
@@ -814,9 +1790,15 @@
       <c r="J53"/>
     </row>
     <row r="54">
-      <c r="A54"/>
-      <c r="B54"/>
-      <c r="C54"/>
+      <c r="A54" t="s">
+        <v>159</v>
+      </c>
+      <c r="B54" t="s">
+        <v>160</v>
+      </c>
+      <c r="C54" t="s">
+        <v>161</v>
+      </c>
       <c r="D54"/>
       <c r="E54"/>
       <c r="F54"/>
@@ -826,9 +1808,15 @@
       <c r="J54"/>
     </row>
     <row r="55">
-      <c r="A55"/>
-      <c r="B55"/>
-      <c r="C55"/>
+      <c r="A55" t="s">
+        <v>162</v>
+      </c>
+      <c r="B55" t="s">
+        <v>163</v>
+      </c>
+      <c r="C55" t="s">
+        <v>164</v>
+      </c>
       <c r="D55"/>
       <c r="E55"/>
       <c r="F55"/>
@@ -838,9 +1826,15 @@
       <c r="J55"/>
     </row>
     <row r="56">
-      <c r="A56"/>
-      <c r="B56"/>
-      <c r="C56"/>
+      <c r="A56" t="s">
+        <v>165</v>
+      </c>
+      <c r="B56" t="s">
+        <v>166</v>
+      </c>
+      <c r="C56" t="s">
+        <v>167</v>
+      </c>
       <c r="D56"/>
       <c r="E56"/>
       <c r="F56"/>
@@ -850,9 +1844,15 @@
       <c r="J56"/>
     </row>
     <row r="57">
-      <c r="A57"/>
-      <c r="B57"/>
-      <c r="C57"/>
+      <c r="A57" t="s">
+        <v>168</v>
+      </c>
+      <c r="B57" t="s">
+        <v>169</v>
+      </c>
+      <c r="C57" t="s">
+        <v>170</v>
+      </c>
       <c r="D57"/>
       <c r="E57"/>
       <c r="F57"/>
@@ -862,9 +1862,15 @@
       <c r="J57"/>
     </row>
     <row r="58">
-      <c r="A58"/>
-      <c r="B58"/>
-      <c r="C58"/>
+      <c r="A58" t="s">
+        <v>171</v>
+      </c>
+      <c r="B58" t="s">
+        <v>172</v>
+      </c>
+      <c r="C58" t="s">
+        <v>173</v>
+      </c>
       <c r="D58"/>
       <c r="E58"/>
       <c r="F58"/>
@@ -874,9 +1880,15 @@
       <c r="J58"/>
     </row>
     <row r="59">
-      <c r="A59"/>
-      <c r="B59"/>
-      <c r="C59"/>
+      <c r="A59" t="s">
+        <v>174</v>
+      </c>
+      <c r="B59" t="s">
+        <v>175</v>
+      </c>
+      <c r="C59" t="s">
+        <v>176</v>
+      </c>
       <c r="D59"/>
       <c r="E59"/>
       <c r="F59"/>
@@ -886,9 +1898,15 @@
       <c r="J59"/>
     </row>
     <row r="60">
-      <c r="A60"/>
-      <c r="B60"/>
-      <c r="C60"/>
+      <c r="A60" t="s">
+        <v>177</v>
+      </c>
+      <c r="B60" t="s">
+        <v>178</v>
+      </c>
+      <c r="C60" t="s">
+        <v>179</v>
+      </c>
       <c r="D60"/>
       <c r="E60"/>
       <c r="F60"/>
@@ -898,9 +1916,15 @@
       <c r="J60"/>
     </row>
     <row r="61">
-      <c r="A61"/>
-      <c r="B61"/>
-      <c r="C61"/>
+      <c r="A61" t="s">
+        <v>180</v>
+      </c>
+      <c r="B61" t="s">
+        <v>181</v>
+      </c>
+      <c r="C61" t="s">
+        <v>182</v>
+      </c>
       <c r="D61"/>
       <c r="E61"/>
       <c r="F61"/>
@@ -910,9 +1934,15 @@
       <c r="J61"/>
     </row>
     <row r="62">
-      <c r="A62"/>
-      <c r="B62"/>
-      <c r="C62"/>
+      <c r="A62" t="s">
+        <v>183</v>
+      </c>
+      <c r="B62" t="s">
+        <v>184</v>
+      </c>
+      <c r="C62" t="s">
+        <v>185</v>
+      </c>
       <c r="D62"/>
       <c r="E62"/>
       <c r="F62"/>
@@ -922,9 +1952,15 @@
       <c r="J62"/>
     </row>
     <row r="63">
-      <c r="A63"/>
-      <c r="B63"/>
-      <c r="C63"/>
+      <c r="A63" t="s">
+        <v>186</v>
+      </c>
+      <c r="B63" t="s">
+        <v>187</v>
+      </c>
+      <c r="C63" t="s">
+        <v>188</v>
+      </c>
       <c r="D63"/>
       <c r="E63"/>
       <c r="F63"/>
@@ -934,8 +1970,12 @@
       <c r="J63"/>
     </row>
     <row r="64">
-      <c r="A64"/>
-      <c r="B64"/>
+      <c r="A64" t="s">
+        <v>189</v>
+      </c>
+      <c r="B64" t="s">
+        <v>190</v>
+      </c>
       <c r="C64"/>
       <c r="D64"/>
       <c r="E64"/>
@@ -946,8 +1986,12 @@
       <c r="J64"/>
     </row>
     <row r="65">
-      <c r="A65"/>
-      <c r="B65"/>
+      <c r="A65" t="s">
+        <v>191</v>
+      </c>
+      <c r="B65" t="s">
+        <v>192</v>
+      </c>
       <c r="C65"/>
       <c r="D65"/>
       <c r="E65"/>
@@ -958,8 +2002,12 @@
       <c r="J65"/>
     </row>
     <row r="66">
-      <c r="A66"/>
-      <c r="B66"/>
+      <c r="A66" t="s">
+        <v>193</v>
+      </c>
+      <c r="B66" t="s">
+        <v>194</v>
+      </c>
       <c r="C66"/>
       <c r="D66"/>
       <c r="E66"/>
@@ -970,8 +2018,12 @@
       <c r="J66"/>
     </row>
     <row r="67">
-      <c r="A67"/>
-      <c r="B67"/>
+      <c r="A67" t="s">
+        <v>195</v>
+      </c>
+      <c r="B67" t="s">
+        <v>196</v>
+      </c>
       <c r="C67"/>
       <c r="D67"/>
       <c r="E67"/>
@@ -982,8 +2034,12 @@
       <c r="J67"/>
     </row>
     <row r="68">
-      <c r="A68"/>
-      <c r="B68"/>
+      <c r="A68" t="s">
+        <v>197</v>
+      </c>
+      <c r="B68" t="s">
+        <v>198</v>
+      </c>
       <c r="C68"/>
       <c r="D68"/>
       <c r="E68"/>
@@ -994,9 +2050,15 @@
       <c r="J68"/>
     </row>
     <row r="69">
-      <c r="A69"/>
-      <c r="B69"/>
-      <c r="C69"/>
+      <c r="A69" t="s">
+        <v>199</v>
+      </c>
+      <c r="B69" t="s">
+        <v>200</v>
+      </c>
+      <c r="C69" t="s">
+        <v>201</v>
+      </c>
       <c r="D69"/>
       <c r="E69"/>
       <c r="F69"/>
@@ -1006,9 +2068,15 @@
       <c r="J69"/>
     </row>
     <row r="70">
-      <c r="A70"/>
-      <c r="B70"/>
-      <c r="C70"/>
+      <c r="A70" t="s">
+        <v>202</v>
+      </c>
+      <c r="B70" t="s">
+        <v>203</v>
+      </c>
+      <c r="C70" t="s">
+        <v>204</v>
+      </c>
       <c r="D70"/>
       <c r="E70"/>
       <c r="F70"/>
@@ -1018,9 +2086,15 @@
       <c r="J70"/>
     </row>
     <row r="71">
-      <c r="A71"/>
-      <c r="B71"/>
-      <c r="C71"/>
+      <c r="A71" t="s">
+        <v>205</v>
+      </c>
+      <c r="B71" t="s">
+        <v>206</v>
+      </c>
+      <c r="C71" t="s">
+        <v>207</v>
+      </c>
       <c r="D71"/>
       <c r="E71"/>
       <c r="F71"/>
@@ -1030,9 +2104,15 @@
       <c r="J71"/>
     </row>
     <row r="72">
-      <c r="A72"/>
-      <c r="B72"/>
-      <c r="C72"/>
+      <c r="A72" t="s">
+        <v>208</v>
+      </c>
+      <c r="B72" t="s">
+        <v>209</v>
+      </c>
+      <c r="C72" t="s">
+        <v>210</v>
+      </c>
       <c r="D72"/>
       <c r="E72"/>
       <c r="F72"/>
@@ -1042,9 +2122,15 @@
       <c r="J72"/>
     </row>
     <row r="73">
-      <c r="A73"/>
-      <c r="B73"/>
-      <c r="C73"/>
+      <c r="A73" t="s">
+        <v>211</v>
+      </c>
+      <c r="B73" t="s">
+        <v>212</v>
+      </c>
+      <c r="C73" t="s">
+        <v>213</v>
+      </c>
       <c r="D73"/>
       <c r="E73"/>
       <c r="F73"/>
@@ -1054,9 +2140,15 @@
       <c r="J73"/>
     </row>
     <row r="74">
-      <c r="A74"/>
-      <c r="B74"/>
-      <c r="C74"/>
+      <c r="A74" t="s">
+        <v>214</v>
+      </c>
+      <c r="B74" t="s">
+        <v>215</v>
+      </c>
+      <c r="C74" t="s">
+        <v>216</v>
+      </c>
       <c r="D74"/>
       <c r="E74"/>
       <c r="F74"/>
@@ -1066,9 +2158,15 @@
       <c r="J74"/>
     </row>
     <row r="75">
-      <c r="A75"/>
-      <c r="B75"/>
-      <c r="C75"/>
+      <c r="A75" t="s">
+        <v>217</v>
+      </c>
+      <c r="B75" t="s">
+        <v>218</v>
+      </c>
+      <c r="C75" t="s">
+        <v>219</v>
+      </c>
       <c r="D75"/>
       <c r="E75"/>
       <c r="F75"/>
@@ -1078,9 +2176,15 @@
       <c r="J75"/>
     </row>
     <row r="76">
-      <c r="A76"/>
-      <c r="B76"/>
-      <c r="C76"/>
+      <c r="A76" t="s">
+        <v>220</v>
+      </c>
+      <c r="B76" t="s">
+        <v>221</v>
+      </c>
+      <c r="C76" t="s">
+        <v>222</v>
+      </c>
       <c r="D76"/>
       <c r="E76"/>
       <c r="F76"/>
@@ -1090,9 +2194,15 @@
       <c r="J76"/>
     </row>
     <row r="77">
-      <c r="A77"/>
-      <c r="B77"/>
-      <c r="C77"/>
+      <c r="A77" t="s">
+        <v>223</v>
+      </c>
+      <c r="B77" t="s">
+        <v>224</v>
+      </c>
+      <c r="C77" t="s">
+        <v>225</v>
+      </c>
       <c r="D77"/>
       <c r="E77"/>
       <c r="F77"/>
@@ -1102,9 +2212,15 @@
       <c r="J77"/>
     </row>
     <row r="78">
-      <c r="A78"/>
-      <c r="B78"/>
-      <c r="C78"/>
+      <c r="A78" t="s">
+        <v>226</v>
+      </c>
+      <c r="B78" t="s">
+        <v>227</v>
+      </c>
+      <c r="C78" t="s">
+        <v>228</v>
+      </c>
       <c r="D78"/>
       <c r="E78"/>
       <c r="F78"/>
@@ -1114,9 +2230,15 @@
       <c r="J78"/>
     </row>
     <row r="79">
-      <c r="A79"/>
-      <c r="B79"/>
-      <c r="C79"/>
+      <c r="A79" t="s">
+        <v>229</v>
+      </c>
+      <c r="B79" t="s">
+        <v>230</v>
+      </c>
+      <c r="C79" t="s">
+        <v>231</v>
+      </c>
       <c r="D79"/>
       <c r="E79"/>
       <c r="F79"/>
@@ -1126,9 +2248,15 @@
       <c r="J79"/>
     </row>
     <row r="80">
-      <c r="A80"/>
-      <c r="B80"/>
-      <c r="C80"/>
+      <c r="A80" t="s">
+        <v>232</v>
+      </c>
+      <c r="B80" t="s">
+        <v>233</v>
+      </c>
+      <c r="C80" t="s">
+        <v>234</v>
+      </c>
       <c r="D80"/>
       <c r="E80"/>
       <c r="F80"/>
@@ -1138,9 +2266,15 @@
       <c r="J80"/>
     </row>
     <row r="81">
-      <c r="A81"/>
-      <c r="B81"/>
-      <c r="C81"/>
+      <c r="A81" t="s">
+        <v>235</v>
+      </c>
+      <c r="B81" t="s">
+        <v>236</v>
+      </c>
+      <c r="C81" t="s">
+        <v>237</v>
+      </c>
       <c r="D81"/>
       <c r="E81"/>
       <c r="F81"/>
@@ -1150,9 +2284,15 @@
       <c r="J81"/>
     </row>
     <row r="82">
-      <c r="A82"/>
-      <c r="B82"/>
-      <c r="C82"/>
+      <c r="A82" t="s">
+        <v>238</v>
+      </c>
+      <c r="B82" t="s">
+        <v>239</v>
+      </c>
+      <c r="C82" t="s">
+        <v>240</v>
+      </c>
       <c r="D82"/>
       <c r="E82"/>
       <c r="F82"/>
@@ -1162,9 +2302,15 @@
       <c r="J82"/>
     </row>
     <row r="83">
-      <c r="A83"/>
-      <c r="B83"/>
-      <c r="C83"/>
+      <c r="A83" t="s">
+        <v>241</v>
+      </c>
+      <c r="B83" t="s">
+        <v>242</v>
+      </c>
+      <c r="C83" t="s">
+        <v>243</v>
+      </c>
       <c r="D83"/>
       <c r="E83"/>
       <c r="F83"/>
@@ -1174,9 +2320,15 @@
       <c r="J83"/>
     </row>
     <row r="84">
-      <c r="A84"/>
-      <c r="B84"/>
-      <c r="C84"/>
+      <c r="A84" t="s">
+        <v>244</v>
+      </c>
+      <c r="B84" t="s">
+        <v>245</v>
+      </c>
+      <c r="C84" t="s">
+        <v>246</v>
+      </c>
       <c r="D84"/>
       <c r="E84"/>
       <c r="F84"/>
@@ -1186,9 +2338,15 @@
       <c r="J84"/>
     </row>
     <row r="85">
-      <c r="A85"/>
-      <c r="B85"/>
-      <c r="C85"/>
+      <c r="A85" t="s">
+        <v>247</v>
+      </c>
+      <c r="B85" t="s">
+        <v>248</v>
+      </c>
+      <c r="C85" t="s">
+        <v>249</v>
+      </c>
       <c r="D85"/>
       <c r="E85"/>
       <c r="F85"/>
@@ -1198,9 +2356,15 @@
       <c r="J85"/>
     </row>
     <row r="86">
-      <c r="A86"/>
-      <c r="B86"/>
-      <c r="C86"/>
+      <c r="A86" t="s">
+        <v>250</v>
+      </c>
+      <c r="B86" t="s">
+        <v>251</v>
+      </c>
+      <c r="C86" t="s">
+        <v>252</v>
+      </c>
       <c r="D86"/>
       <c r="E86"/>
       <c r="F86"/>
